--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -378,12 +386,232 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="double">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="double">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -393,171 +621,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="double">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="double">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="double">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="double">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -568,23 +646,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -599,18 +677,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,229 +995,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="45" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="46" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="46" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="A5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="46" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="46" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="46" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="46" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="46" t="s">
         <v>28</v>
       </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="46" t="s">
         <v>33</v>
       </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="46" t="s">
         <v>38</v>
       </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="46" t="s">
         <v>34</v>
       </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="46" t="s">
         <v>35</v>
       </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="A14" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="46" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="C15" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="46" t="s">
         <v>43</v>
       </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="47" t="s">
         <v>48</v>
       </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="G23" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,13 +1367,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -1149,7 +1382,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" t="s">
@@ -1158,7 +1391,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1167,7 +1400,7 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1176,7 +1409,7 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1185,16 +1418,16 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1203,7 +1436,7 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1230,7 +1463,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1267,15 +1500,15 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1312,10 +1545,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1344,641 +1577,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="C2" s="8"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>4</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>5</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>6</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>7</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>8</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>9</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="40" t="str">
+      <c r="C4" s="35" t="str">
         <f>T(B5)</f>
         <v>Administrar datos generales de los clientes.</v>
       </c>
-      <c r="D4" s="40" t="str">
+      <c r="D4" s="35" t="str">
         <f>T(B6)</f>
         <v>Administrar cartelera de peliculas.</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="35" t="str">
         <f>T(B7)</f>
         <v>Crear buscador de peliculas</v>
       </c>
-      <c r="F4" s="40" t="str">
+      <c r="F4" s="35" t="str">
         <f>T(B8)</f>
         <v>Implementar carrito de compras.</v>
       </c>
-      <c r="G4" s="40" t="str">
+      <c r="G4" s="35" t="str">
         <f>T(B9)</f>
         <v>Administrar ventas.</v>
       </c>
-      <c r="H4" s="40" t="str">
+      <c r="H4" s="35" t="str">
         <f>T(B10)</f>
         <v>Notificacion de clientes.</v>
       </c>
-      <c r="I4" s="41" t="str">
+      <c r="I4" s="36" t="str">
         <f>T(B11)</f>
         <v/>
       </c>
-      <c r="J4" s="41" t="str">
+      <c r="J4" s="36" t="str">
         <f>T(B12)</f>
         <v/>
       </c>
-      <c r="K4" s="40" t="str">
+      <c r="K4" s="35" t="str">
         <f>T(B13)</f>
         <v/>
       </c>
-      <c r="L4" s="42" t="str">
+      <c r="L4" s="37" t="str">
         <f>T(B14)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:14" ht="48" customHeight="1" thickBot="1">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="17">
         <v>5</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="17">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="17">
         <v>5</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="17">
         <v>2</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="19">
         <f>IF(D5="","",1/D5)</f>
         <v>0.2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="17">
         <v>5</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="17">
         <v>8</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="17">
         <v>8</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="17">
         <v>2</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="19">
         <f>IF(E5="","",1/E5)</f>
         <v>0.5</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="19">
         <f>IF(E6="","",1/E6)</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="17">
         <v>8</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="17">
         <v>8</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="17">
         <v>2</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <f>IF(F5="","",1/F5)</f>
         <v>0.2</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="19">
         <f>IF(F6="","",1/F6)</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <f>IF(F7="","",1/F7)</f>
         <v>0.125</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="17">
         <v>5</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="17">
         <v>2</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="19">
         <f>IF(G5="","",1/G5)</f>
         <v>0.2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="19">
         <f>IF(G6="","",1/G6)</f>
         <v>0.125</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <f>IF(G7="","",1/G7)</f>
         <v>0.125</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <f>IF(G8="","",1/G8)</f>
         <v>0.2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="17">
         <v>2</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A10" s="19">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <f>IF(H5="","",1/G6)</f>
         <v>0.125</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="19">
         <f>IF(H6="","",1/H6)</f>
         <v>0.5</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <f>IF(H7="","",1/H7)</f>
         <v>0.5</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <f>IF(H8="","",1/H8)</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <f>IF(H9="","",1/H9)</f>
         <v>0.5</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="19">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="24" t="str">
+      <c r="B11" s="38"/>
+      <c r="C11" s="19" t="str">
         <f>IF(I5="","",1/G7)</f>
         <v/>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(I6="","",1/I6)</f>
         <v/>
       </c>
-      <c r="E11" s="24" t="str">
+      <c r="E11" s="19" t="str">
         <f>IF(I7="","",1/I7)</f>
         <v/>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" s="19" t="str">
         <f>IF(I8="","",1/I8)</f>
         <v/>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="19" t="str">
         <f>IF(I9="","",1/I9)</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(I10="","",1/I10)</f>
         <v/>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="19">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="24" t="str">
+      <c r="B12" s="38"/>
+      <c r="C12" s="19" t="str">
         <f>IF(J5="","",1/G8)</f>
         <v/>
       </c>
-      <c r="D12" s="24" t="str">
+      <c r="D12" s="19" t="str">
         <f>IF(J6="","",1/J6)</f>
         <v/>
       </c>
-      <c r="E12" s="24" t="str">
+      <c r="E12" s="19" t="str">
         <f>IF(J7="","",1/J7)</f>
         <v/>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="19" t="str">
         <f>IF(J8="","",1/J8)</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="19" t="str">
         <f>IF(J9="","",1/J9)</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="19" t="str">
         <f>IF(J10="","",1/J10)</f>
         <v/>
       </c>
-      <c r="I12" s="24" t="str">
+      <c r="I12" s="19" t="str">
         <f>IF(J11="","",1/J11)</f>
         <v/>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="16">
         <v>1</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A13" s="19">
+      <c r="A13" s="14">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="24" t="str">
+      <c r="B13" s="38"/>
+      <c r="C13" s="19" t="str">
         <f>IF(K5="","",1/G9)</f>
         <v/>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="19" t="str">
         <f>IF(K6="","",1/K6)</f>
         <v/>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="19" t="str">
         <f>IF(K7="","",1/K7)</f>
         <v/>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="19" t="str">
         <f>IF(K8="","",1/K8)</f>
         <v/>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="19" t="str">
         <f>IF(K9="","",1/K9)</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(K10="","",1/K10)</f>
         <v/>
       </c>
-      <c r="I13" s="24" t="str">
+      <c r="I13" s="19" t="str">
         <f>IF(K11="","",1/K11)</f>
         <v/>
       </c>
-      <c r="J13" s="24" t="str">
+      <c r="J13" s="19" t="str">
         <f>IF(K12="","",1/K12)</f>
         <v/>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="16">
         <v>1</v>
       </c>
-      <c r="L13" s="23"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A14" s="19">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24" t="str">
+      <c r="B14" s="20"/>
+      <c r="C14" s="19" t="str">
         <f>IF(L5="","",1/G10)</f>
         <v/>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="19" t="str">
         <f>IF(L6="","",1/L6)</f>
         <v/>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="19" t="str">
         <f>IF(L7="","",1/L7)</f>
         <v/>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="19" t="str">
         <f>IF(L8="","",1/L8)</f>
         <v/>
       </c>
-      <c r="G14" s="24" t="str">
+      <c r="G14" s="19" t="str">
         <f>IF(L9="","",1/L9)</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(L10="","",1/L10)</f>
         <v/>
       </c>
-      <c r="I14" s="24" t="str">
+      <c r="I14" s="19" t="str">
         <f>IF(L11="","",1/L11)</f>
         <v/>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" s="19" t="str">
         <f>IF(L12="","",1/L12)</f>
         <v/>
       </c>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="19" t="str">
         <f>IF(L13="","",1/L13)</f>
         <v/>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="19">
         <f>IF(C6="","",SUM(C5:C14))</f>
         <v>2.2250000000000001</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="19">
         <f t="shared" ref="D15:L15" si="0">IF(D5="","",SUM(D5:D14))</f>
         <v>6.95</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>22.7</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I15" s="24" t="str">
+      <c r="I15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="24" t="str">
+      <c r="J15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="24" t="str">
+      <c r="K15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="28" t="str">
+      <c r="L15" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="18" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A20" s="19">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="str">
+      <c r="B20" s="38" t="str">
         <f t="shared" ref="B20:B25" si="1">B5</f>
         <v>Administrar datos generales de los clientes.</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="19">
         <f>G15</f>
         <v>27.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A21" s="19">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Administrar cartelera de peliculas.</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="19">
         <f>F15</f>
         <v>22.7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A22" s="19">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="43" t="str">
+      <c r="B22" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Crear buscador de peliculas</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="19">
         <f>H15</f>
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A23" s="19">
+      <c r="A23" s="14">
         <v>4</v>
       </c>
-      <c r="B23" s="43" t="str">
+      <c r="B23" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Implementar carrito de compras.</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="19">
         <f>E15</f>
         <v>8.75</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A24" s="19">
+      <c r="A24" s="14">
         <v>5</v>
       </c>
-      <c r="B24" s="43" t="str">
+      <c r="B24" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Administrar ventas.</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="19">
         <f>D15</f>
         <v>6.95</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <v>6</v>
       </c>
-      <c r="B25" s="43" t="str">
+      <c r="B25" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Notificacion de clientes.</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="19">
         <f>C15</f>
         <v>2.2250000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="44" spans="3:14">
-      <c r="C44" s="32"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="29"/>
     </row>
     <row r="46" spans="3:14">
-      <c r="N46" s="34"/>
+      <c r="N46" s="29"/>
     </row>
     <row r="47" spans="3:14">
-      <c r="G47" s="35"/>
-      <c r="H47" s="37"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="36"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="32"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="31"/>
     </row>
     <row r="48" spans="3:14">
-      <c r="G48" s="35"/>
-      <c r="H48" s="37"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="38"/>
+      <c r="B50" s="33"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="C54" s="32"/>
+      <c r="C54" s="27"/>
     </row>
   </sheetData>
   <sortState ref="B19:C26">
@@ -1992,61 +2225,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75.75" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPC\Evolucion\Trabajo\Analisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Matriz" sheetId="4" r:id="rId3"/>
     <sheet name="Sprints" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,12 +236,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,21 +992,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -1013,7 +1018,7 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1070,7 @@
       <c r="I2" s="45"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
@@ -1081,7 +1086,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46" t="s">
@@ -1097,7 +1102,7 @@
       <c r="I4" s="46"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1122,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="42"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="51" t="s">
@@ -1133,7 +1138,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="42"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46" t="s">
@@ -1149,7 +1154,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1174,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -1185,7 +1190,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1210,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -1221,7 +1226,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -1237,7 +1242,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="51" t="s">
@@ -1253,7 +1258,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1278,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46" t="s">
@@ -1289,7 +1294,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
@@ -1309,7 +1314,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46" t="s">
@@ -1325,7 +1330,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="42"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47" t="s">
@@ -1341,7 +1346,7 @@
       <c r="I18" s="47"/>
       <c r="J18" s="43"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="54"/>
     </row>
   </sheetData>
@@ -1351,14 +1356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -1366,7 +1371,7 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1380,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1389,7 @@
       </c>
       <c r="E2" s="39"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1398,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1402,7 +1407,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1416,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1425,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1429,7 +1434,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1443,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1462,12 +1467,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1499,12 +1504,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1544,7 +1549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1559,14 +1564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -1576,7 +1581,7 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1586,14 +1591,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" thickBot="1">
+    <row r="2" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="8"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>63</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>64</v>
@@ -1677,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1707,7 +1712,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:14" ht="41.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1738,7 +1743,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="36" customHeight="1" thickBot="1">
+    <row r="7" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1770,7 +1775,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1803,7 +1808,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1837,7 +1842,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="30.75" thickBot="1">
+    <row r="10" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1872,7 +1877,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1908,7 +1913,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1947,7 +1952,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1989,7 +1994,7 @@
       </c>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>65</v>
@@ -2080,7 +2085,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -2094,9 +2099,9 @@
       <c r="K16" s="25"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickTop="1"/>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45.75" thickBot="1">
+    <row r="21" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>2</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30.75" thickBot="1">
+    <row r="22" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>3</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45.75" thickBot="1">
+    <row r="23" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>4</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.75" thickBot="1">
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>5</v>
       </c>
@@ -2169,7 +2174,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30.75" thickBot="1">
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>6</v>
       </c>
@@ -2182,35 +2187,35 @@
         <v>2.2250000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M45" s="28"/>
       <c r="N45" s="29"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N46" s="29"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G47" s="30"/>
       <c r="H47" s="32"/>
       <c r="M47" s="30"/>
       <c r="N47" s="31"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="G48" s="30"/>
       <c r="H48" s="32"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" s="27"/>
     </row>
   </sheetData>
@@ -2222,16 +2227,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
@@ -2245,37 +2250,37 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75.75" thickBot="1">
+    <row r="2" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:4" ht="60.75" thickBot="1">
+    <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="60.75" thickBot="1">
+    <row r="4" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="1:4" ht="60.75" thickBot="1">
+    <row r="5" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1">
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="40"/>
     </row>
-    <row r="7" spans="1:4" ht="45.75" thickBot="1">
+    <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>45</v>
       </c>

--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Permite a usuario comprar entrada.</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Resultado</t>
+  </si>
+  <si>
+    <t>Administracion de usuarios y peliculas</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,170 +1391,179 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1593,17 +1602,17 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -1639,7 +1648,7 @@
     <row r="4" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="35" t="str">
         <f>T(B5)</f>
@@ -2042,7 +2051,7 @@
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="19">
         <f>IF(C6="","",SUM(C5:C14))</f>
@@ -2106,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2231,7 +2240,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,10 +2253,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2260,7 +2269,7 @@
       <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -2284,9 +2293,10 @@
       <c r="A7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPC\Evolucion\Trabajo\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\GitHub\TrabajoFinalDeEvo\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Release" sheetId="2" r:id="rId2"/>
     <sheet name="Matriz" sheetId="4" r:id="rId3"/>
     <sheet name="Sprints" sheetId="5" r:id="rId4"/>
+    <sheet name="User Story" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -231,6 +232,171 @@
   </si>
   <si>
     <t>Administracion de usuarios y peliculas</t>
+  </si>
+  <si>
+    <t>HISTORIAS DE USUARIO</t>
+  </si>
+  <si>
+    <t>BKLG001</t>
+  </si>
+  <si>
+    <t>BKLG002</t>
+  </si>
+  <si>
+    <t>BKLG003</t>
+  </si>
+  <si>
+    <t>BKLG004</t>
+  </si>
+  <si>
+    <t>BKLG005</t>
+  </si>
+  <si>
+    <t>BKLG006</t>
+  </si>
+  <si>
+    <r>
+      <t>Como</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de venta de películas se necesita poder administrar los datos generales de los clientes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de venta de películas se necesita mostrar la cartera de películas que ofrecemos a los clientes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>cliente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> se necesita crear un perfil de búsqueda para las películas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de venta de películas se necesita implementar un carrito de compras.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de venta de películas se necesita registrar las ventas, para luego analizar que películas son las más vendidas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>cliente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> necesito poder recibir notificaciones de las nuevas películas adquiridas.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -241,7 +407,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +494,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -391,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -632,11 +817,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +946,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,7 +1244,7 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -1359,11 +1597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -1580,7 +1818,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
@@ -2239,11 +2477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
@@ -2299,4 +2537,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Release" sheetId="2" r:id="rId2"/>
     <sheet name="Matriz" sheetId="4" r:id="rId3"/>
     <sheet name="Sprints" sheetId="5" r:id="rId4"/>
-    <sheet name="User Story" sheetId="7" r:id="rId5"/>
+    <sheet name="Caracteristicas" sheetId="8" r:id="rId5"/>
+    <sheet name="User Story" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -398,6 +399,33 @@
       <t xml:space="preserve"> necesito poder recibir notificaciones de las nuevas películas adquiridas.</t>
     </r>
   </si>
+  <si>
+    <t>1 = Menor Prioridad   3 =  Regular  5 =  Moderado 7 = Relevante 9 = Mayor Prioridad</t>
+  </si>
+  <si>
+    <t>Valor del StakeHolder</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución</t>
+  </si>
+  <si>
+    <t>Complejidad</t>
+  </si>
+  <si>
+    <t>Cantidad de Recursos</t>
+  </si>
+  <si>
+    <t>Objetivo del Negocio</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 1</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 2</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 3</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +435,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,8 +541,43 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +638,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -858,11 +939,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,21 +1037,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2477,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2540,6 +2654,733 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1</v>
+      </c>
+      <c r="D4" s="66">
+        <v>6</v>
+      </c>
+      <c r="E4" s="66">
+        <v>2</v>
+      </c>
+      <c r="F4" s="66">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66">
+        <v>8</v>
+      </c>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="67">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1</v>
+      </c>
+      <c r="E5" s="67">
+        <v>9</v>
+      </c>
+      <c r="F5" s="67">
+        <v>8</v>
+      </c>
+      <c r="G5" s="67">
+        <v>7</v>
+      </c>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1</v>
+      </c>
+      <c r="F6" s="66">
+        <v>4</v>
+      </c>
+      <c r="G6" s="66">
+        <v>5</v>
+      </c>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.125</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="67">
+        <v>1</v>
+      </c>
+      <c r="G7" s="67">
+        <v>7</v>
+      </c>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E8" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G8" s="66">
+        <v>1</v>
+      </c>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="C9" s="27">
+        <f>SUM(C4:C8)</f>
+        <v>2.791666666666667</v>
+      </c>
+      <c r="D9" s="27">
+        <f t="shared" ref="D9:G9" si="0">SUM(D4:D8)</f>
+        <v>7.378968253968254</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>12.45</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>14.142857142857142</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <f>C4/$C$9</f>
+        <v>0.35820895522388058</v>
+      </c>
+      <c r="D12">
+        <f>D4/$D$9</f>
+        <v>0.8131218069373487</v>
+      </c>
+      <c r="E12">
+        <f>E4/$E$9</f>
+        <v>0.1606425702811245</v>
+      </c>
+      <c r="F12">
+        <f>F4/$F$9</f>
+        <v>7.0707070707070704E-2</v>
+      </c>
+      <c r="G12">
+        <f>G4/$G$9</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="1">C5/$C$9</f>
+        <v>5.9701492537313425E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D16" si="2">D5/$D$9</f>
+        <v>0.13552030115622479</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="3">E5/$E$9</f>
+        <v>0.72289156626506024</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="4">F5/$F$9</f>
+        <v>0.56565656565656564</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="5">G5/$G$9</f>
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="61"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.17910447761194029</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1.5057811239580532E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>8.0321285140562249E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.35820895522388058</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1.6940037644528099E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>2.0080321285140562E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>7.0707070707070704E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1.9360043022317825E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1.6064257028112452E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>1.01010101010101E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="6">SUM(D12:D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <f t="array" ref="C19:G23">MMULT(C12:G16,TRANSPOSE(C12:G16))</f>
+        <v>0.90191890681536835</v>
+      </c>
+      <c r="D19">
+        <v>0.35913177087167658</v>
+      </c>
+      <c r="E19">
+        <v>0.16032204773336839</v>
+      </c>
+      <c r="F19">
+        <v>0.22174178532155134</v>
+      </c>
+      <c r="G19">
+        <v>4.5280178121745514E-2</v>
+      </c>
+      <c r="I19">
+        <f>SUM(C19:H19)</f>
+        <v>1.6883946888637102</v>
+      </c>
+      <c r="K19" s="69">
+        <f>I19/$I$24</f>
+        <v>0.33767893777274205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>0.35913177087167658</v>
+      </c>
+      <c r="D20">
+        <v>0.92696958708418942</v>
+      </c>
+      <c r="E20">
+        <v>0.2754235556452212</v>
+      </c>
+      <c r="F20">
+        <v>0.14069314195900004</v>
+      </c>
+      <c r="G20">
+        <v>3.1551870055076939E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I23" si="7">SUM(C20:H20)</f>
+        <v>1.7337699256151642</v>
+      </c>
+      <c r="K20" s="69">
+        <f>I20/$I$24</f>
+        <v>0.34675398512303285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>0.16032204773336839</v>
+      </c>
+      <c r="D21">
+        <v>0.2754235556452212</v>
+      </c>
+      <c r="E21">
+        <v>0.15063625309624032</v>
+      </c>
+      <c r="F21">
+        <v>0.13066560143694855</v>
+      </c>
+      <c r="G21">
+        <v>1.8835827480016016E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>0.73588328539179448</v>
+      </c>
+      <c r="K21" s="69">
+        <f t="shared" ref="K21:K23" si="8">I21/$I$24</f>
+        <v>0.14717665707835889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>0.22174178532155134</v>
+      </c>
+      <c r="D22">
+        <v>0.14069314195900004</v>
+      </c>
+      <c r="E22">
+        <v>0.13066560143694855</v>
+      </c>
+      <c r="F22">
+        <v>0.19650332962887129</v>
+      </c>
+      <c r="G22">
+        <v>2.6332526514248722E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0.71593638486061995</v>
+      </c>
+      <c r="K22" s="69">
+        <f t="shared" si="8"/>
+        <v>0.14318727697212399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>4.5280178121745514E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.1551870055076939E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.8835827480016016E-2</v>
+      </c>
+      <c r="F23">
+        <v>2.6332526514248722E-2</v>
+      </c>
+      <c r="G23">
+        <v>4.0153130976239744E-3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>0.12601571526871116</v>
+      </c>
+      <c r="K23" s="69">
+        <f t="shared" si="8"/>
+        <v>2.5203143053742234E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="C24" s="70">
+        <f>SUM(C19:C23)</f>
+        <v>1.6883946888637102</v>
+      </c>
+      <c r="D24" s="70">
+        <f t="shared" ref="D24:G24" si="9">SUM(D19:D23)</f>
+        <v>1.7337699256151642</v>
+      </c>
+      <c r="E24" s="70">
+        <f t="shared" si="9"/>
+        <v>0.73588328539179448</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="9"/>
+        <v>0.71593638486061995</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" si="9"/>
+        <v>0.12601571526871116</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70">
+        <f>SUM(I19:I23)</f>
+        <v>5</v>
+      </c>
+      <c r="K24" s="61"/>
+    </row>
+    <row r="25" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <f t="array" ref="C26:G30">MMULT(C19:G23,TRANSPOSE(C19:G23))</f>
+        <v>1.0193562161982019</v>
+      </c>
+      <c r="D26">
+        <v>0.73359465475268404</v>
+      </c>
+      <c r="E26">
+        <v>0.29748806123410299</v>
+      </c>
+      <c r="F26">
+        <v>0.31623440324891727</v>
+      </c>
+      <c r="G26">
+        <v>6.1210961685082881E-2</v>
+      </c>
+      <c r="I26">
+        <f>SUM(C26:H26)</f>
+        <v>2.4278842971189887</v>
+      </c>
+      <c r="K26" s="69">
+        <f>I26/$I$31</f>
+        <v>0.35051582954449922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <v>0.73359465475268404</v>
+      </c>
+      <c r="D27">
+        <v>1.0848964599309829</v>
+      </c>
+      <c r="E27">
+        <v>0.373352832591964</v>
+      </c>
+      <c r="F27">
+        <v>0.27451867960006343</v>
+      </c>
+      <c r="G27">
+        <v>5.4528501617097068E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I30" si="10">SUM(C27:H27)</f>
+        <v>2.5208911284927913</v>
+      </c>
+      <c r="K27" s="69">
+        <f t="shared" ref="K27:K30" si="11">I27/$I$31</f>
+        <v>0.36394330905453126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>0.29748806123410299</v>
+      </c>
+      <c r="D28">
+        <v>0.373352832591964</v>
+      </c>
+      <c r="E28">
+        <v>0.1416808625362877</v>
+      </c>
+      <c r="F28">
+        <v>0.12015549978993313</v>
+      </c>
+      <c r="G28">
+        <v>2.2303284750715788E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>0.95498054090300366</v>
+      </c>
+      <c r="K28" s="69">
+        <f t="shared" si="11"/>
+        <v>0.13787139563886136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>0.31623440324891727</v>
+      </c>
+      <c r="D29">
+        <v>0.27451867960006343</v>
+      </c>
+      <c r="E29">
+        <v>0.12015549978993313</v>
+      </c>
+      <c r="F29">
+        <v>0.12534443945862023</v>
+      </c>
+      <c r="G29">
+        <v>2.2220996471560058E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>0.858474018569094</v>
+      </c>
+      <c r="K29" s="69">
+        <f t="shared" si="11"/>
+        <v>0.12393866261181166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="68"/>
+      <c r="B30" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>6.1210961685082881E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.4528501617097068E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.2303284750715788E-2</v>
+      </c>
+      <c r="F30">
+        <v>2.2220996471560058E-2</v>
+      </c>
+      <c r="G30">
+        <v>4.110128123461951E-3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>0.16437387264791775</v>
+      </c>
+      <c r="K30" s="69">
+        <f t="shared" si="11"/>
+        <v>2.3730803150296527E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="59"/>
+      <c r="C31" s="70">
+        <f>SUM(C26:C30)</f>
+        <v>2.4278842971189887</v>
+      </c>
+      <c r="D31" s="70">
+        <f t="shared" ref="D31:G31" si="12">SUM(D26:D30)</f>
+        <v>2.5208911284927913</v>
+      </c>
+      <c r="E31" s="70">
+        <f t="shared" si="12"/>
+        <v>0.95498054090300366</v>
+      </c>
+      <c r="F31" s="70">
+        <f t="shared" si="12"/>
+        <v>0.858474018569094</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="12"/>
+        <v>0.16437387264791775</v>
+      </c>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70">
+        <f>SUM(I26:I30)</f>
+        <v>6.926603857731795</v>
+      </c>
+      <c r="K31" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A26:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
@@ -2553,56 +3394,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>ITERACIÓN 3</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 4</t>
   </si>
 </sst>
 </file>
@@ -1043,12 +1046,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1064,13 +1061,19 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2655,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,148 +2678,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="61"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="K2" s="61"/>
+      <c r="A2" s="57"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="64">
         <v>1</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="64">
         <v>6</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <v>2</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="64">
         <v>1</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="64">
         <v>8</v>
       </c>
-      <c r="K4" s="61"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="65">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="65">
         <v>1</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="65">
         <v>9</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="65">
         <v>8</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="65">
         <v>7</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="64">
         <v>0.5</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="64">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="64">
         <v>4</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="64">
         <v>5</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="65">
         <v>0.125</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="65">
         <v>0.25</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="65">
         <v>1</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="65">
         <v>7</v>
       </c>
-      <c r="K7" s="61"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="64">
         <v>0.125</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="64">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <v>0.2</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="64">
         <v>1</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
         <v>2.791666666666667</v>
@@ -2837,21 +2840,21 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="K10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="K11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C12">
@@ -2874,11 +2877,11 @@
         <f>G4/$G$9</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C13">
@@ -2901,11 +2904,11 @@
         <f t="shared" ref="G13:G16" si="5">G5/$G$9</f>
         <v>0.25</v>
       </c>
-      <c r="K13" s="61"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C14">
@@ -2928,11 +2931,11 @@
         <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
-      <c r="K14" s="61"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>85</v>
       </c>
       <c r="C15">
@@ -2955,11 +2958,11 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="K15" s="61"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C16">
@@ -2982,10 +2985,10 @@
         <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K16" s="61"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="57"/>
       <c r="C17">
         <f>SUM(C12:C16)</f>
         <v>0.99999999999999989</v>
@@ -3006,17 +3009,17 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K17" s="61"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="K18" s="61"/>
+      <c r="A18" s="57"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C19">
@@ -3039,14 +3042,14 @@
         <f>SUM(C19:H19)</f>
         <v>1.6883946888637102</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="66">
         <f>I19/$I$24</f>
         <v>0.33767893777274205</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C20">
@@ -3068,14 +3071,14 @@
         <f t="shared" ref="I20:I23" si="7">SUM(C20:H20)</f>
         <v>1.7337699256151642</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="66">
         <f>I20/$I$24</f>
         <v>0.34675398512303285</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C21">
@@ -3097,14 +3100,14 @@
         <f t="shared" si="7"/>
         <v>0.73588328539179448</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="66">
         <f t="shared" ref="K21:K23" si="8">I21/$I$24</f>
         <v>0.14717665707835889</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>85</v>
       </c>
       <c r="C22">
@@ -3126,14 +3129,14 @@
         <f t="shared" si="7"/>
         <v>0.71593638486061995</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="66">
         <f t="shared" si="8"/>
         <v>0.14318727697212399</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C23">
@@ -3155,49 +3158,49 @@
         <f t="shared" si="7"/>
         <v>0.12601571526871116</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="66">
         <f t="shared" si="8"/>
         <v>2.5203143053742234E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="C24" s="70">
+      <c r="A24" s="57"/>
+      <c r="C24" s="67">
         <f>SUM(C19:C23)</f>
         <v>1.6883946888637102</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="67">
         <f t="shared" ref="D24:G24" si="9">SUM(D19:D23)</f>
         <v>1.7337699256151642</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="67">
         <f t="shared" si="9"/>
         <v>0.73588328539179448</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="67">
         <f t="shared" si="9"/>
         <v>0.71593638486061995</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="67">
         <f t="shared" si="9"/>
         <v>0.12601571526871116</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70">
+      <c r="H24" s="67"/>
+      <c r="I24" s="67">
         <f>SUM(I19:I23)</f>
         <v>5</v>
       </c>
-      <c r="K24" s="61"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="K25" s="61"/>
+      <c r="A25" s="57"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C26">
@@ -3220,14 +3223,14 @@
         <f>SUM(C26:H26)</f>
         <v>2.4278842971189887</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="66">
         <f>I26/$I$31</f>
         <v>0.35051582954449922</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="68"/>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>83</v>
       </c>
       <c r="C27">
@@ -3249,14 +3252,14 @@
         <f t="shared" ref="I27:I30" si="10">SUM(C27:H27)</f>
         <v>2.5208911284927913</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="66">
         <f t="shared" ref="K27:K30" si="11">I27/$I$31</f>
         <v>0.36394330905453126</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="68"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C28">
@@ -3278,14 +3281,14 @@
         <f t="shared" si="10"/>
         <v>0.95498054090300366</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="66">
         <f t="shared" si="11"/>
         <v>0.13787139563886136</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="68"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="60" t="s">
         <v>85</v>
       </c>
       <c r="C29">
@@ -3307,14 +3310,14 @@
         <f t="shared" si="10"/>
         <v>0.858474018569094</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="66">
         <f t="shared" si="11"/>
         <v>0.12393866261181166</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="68"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C30">
@@ -3336,45 +3339,224 @@
         <f t="shared" si="10"/>
         <v>0.16437387264791775</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="66">
         <f t="shared" si="11"/>
         <v>2.3730803150296527E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="C31" s="70">
+      <c r="A31" s="57"/>
+      <c r="C31" s="67">
         <f>SUM(C26:C30)</f>
         <v>2.4278842971189887</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="67">
         <f t="shared" ref="D31:G31" si="12">SUM(D26:D30)</f>
         <v>2.5208911284927913</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="67">
         <f t="shared" si="12"/>
         <v>0.95498054090300366</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="67">
         <f t="shared" si="12"/>
         <v>0.858474018569094</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="67">
         <f t="shared" si="12"/>
         <v>0.16437387264791775</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70">
+      <c r="H31" s="67"/>
+      <c r="I31" s="67">
         <f>SUM(I26:I30)</f>
         <v>6.926603857731795</v>
       </c>
-      <c r="K31" s="61"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <f t="array" ref="C33:G37">MMULT(C26:G30,TRANSPOSE(C26:G30))</f>
+        <v>1.769498339189062</v>
+      </c>
+      <c r="D33">
+        <v>1.7448865186286808</v>
+      </c>
+      <c r="E33">
+        <v>0.65864682018134091</v>
+      </c>
+      <c r="F33">
+        <v>0.60048415996739768</v>
+      </c>
+      <c r="G33">
+        <v>0.11631118100464335</v>
+      </c>
+      <c r="I33">
+        <f>SUM(C33:H33)</f>
+        <v>4.8898270189711246</v>
+      </c>
+      <c r="K33" s="66">
+        <f>I33/$I$38</f>
+        <v>0.35114197340178671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
+      <c r="B34" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
+        <v>1.7448865186286808</v>
+      </c>
+      <c r="D34">
+        <v>1.9328876467948994</v>
+      </c>
+      <c r="E34">
+        <v>0.71038286315791355</v>
+      </c>
+      <c r="F34">
+        <v>0.61029367541084534</v>
+      </c>
+      <c r="G34">
+        <v>0.11871300495075952</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I37" si="13">SUM(C34:H34)</f>
+        <v>5.1171637089430977</v>
+      </c>
+      <c r="K34" s="66">
+        <f t="shared" ref="K34:K37" si="14">I34/$I$38</f>
+        <v>0.3674671836052727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35">
+        <v>0.65864682018134091</v>
+      </c>
+      <c r="D35">
+        <v>0.71038286315791355</v>
+      </c>
+      <c r="E35">
+        <v>0.26289973163073505</v>
+      </c>
+      <c r="F35">
+        <v>0.22914844597563927</v>
+      </c>
+      <c r="G35">
+        <v>4.4489493769352934E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>1.9055673547149816</v>
+      </c>
+      <c r="K35" s="66">
+        <f t="shared" si="14"/>
+        <v>0.13684015381088729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36">
+        <v>0.60048415996739768</v>
+      </c>
+      <c r="D36">
+        <v>0.61029367541084534</v>
+      </c>
+      <c r="E36">
+        <v>0.22914844597563927</v>
+      </c>
+      <c r="F36">
+        <v>0.20600704856471452</v>
+      </c>
+      <c r="G36">
+        <v>3.9882576020918166E-2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>1.685815905939515</v>
+      </c>
+      <c r="K36" s="66">
+        <f t="shared" si="14"/>
+        <v>0.12105964519953048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>0.11631118100464335</v>
+      </c>
+      <c r="D37">
+        <v>0.11871300495075952</v>
+      </c>
+      <c r="E37">
+        <v>4.4489493769352934E-2</v>
+      </c>
+      <c r="F37">
+        <v>3.9882576020918166E-2</v>
+      </c>
+      <c r="G37">
+        <v>7.7282416670703107E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>0.3271244974127443</v>
+      </c>
+      <c r="K37" s="66">
+        <f t="shared" si="14"/>
+        <v>2.3491043982522733E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="C38" s="67">
+        <f>SUM(C33:C37)</f>
+        <v>4.8898270189711246</v>
+      </c>
+      <c r="D38" s="67">
+        <f t="shared" ref="D38:G38" si="15">SUM(D33:D37)</f>
+        <v>5.1171637089430977</v>
+      </c>
+      <c r="E38" s="67">
+        <f t="shared" si="15"/>
+        <v>1.9055673547149816</v>
+      </c>
+      <c r="F38" s="67">
+        <f t="shared" si="15"/>
+        <v>1.685815905939515</v>
+      </c>
+      <c r="G38" s="67">
+        <f t="shared" si="15"/>
+        <v>0.3271244974127443</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67">
+        <f>SUM(I33:I37)</f>
+        <v>13.925498485981464</v>
+      </c>
+      <c r="K38" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,10 +3576,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">

--- a/Analisis/US-Sprint.xlsx
+++ b/Analisis/US-Sprint.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>ITERACIÓN 4</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 5</t>
   </si>
 </sst>
 </file>
@@ -2658,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,12 +3554,191 @@
       </c>
       <c r="K38" s="59"/>
     </row>
+    <row r="40" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <f t="array" ref="C41:G45">MMULT(C34:G38,TRANSPOSE(C34:G38))</f>
+        <v>7.6718785780837946</v>
+      </c>
+      <c r="D41">
+        <v>2.8542430106473362</v>
+      </c>
+      <c r="E41">
+        <v>2.5206483299099411</v>
+      </c>
+      <c r="F41">
+        <v>0.48927081314426857</v>
+      </c>
+      <c r="G41">
+        <v>20.844454874237712</v>
+      </c>
+      <c r="I41">
+        <f>SUM(C41:H41)</f>
+        <v>34.380495606023054</v>
+      </c>
+      <c r="K41" s="66">
+        <f>I41/$I$45</f>
+        <v>0.36784341243388519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
+      <c r="B42" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>2.8542430106473362</v>
+      </c>
+      <c r="D42">
+        <v>1.062064040243843</v>
+      </c>
+      <c r="E42">
+        <v>0.938272766643929</v>
+      </c>
+      <c r="F42">
+        <v>0.18211880571978886</v>
+      </c>
+      <c r="G42">
+        <v>7.7576432685842631</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I45" si="16">SUM(C42:H42)</f>
+        <v>12.79434189183916</v>
+      </c>
+      <c r="K42" s="66">
+        <f t="shared" ref="K42:K45" si="17">I42/$I$45</f>
+        <v>0.13688907906596426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>2.5206483299099411</v>
+      </c>
+      <c r="D43">
+        <v>0.938272766643929</v>
+      </c>
+      <c r="E43">
+        <v>0.8295781308396889</v>
+      </c>
+      <c r="F43">
+        <v>0.16101183025136639</v>
+      </c>
+      <c r="G43">
+        <v>6.8562306423599013</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="16"/>
+        <v>11.305741700004827</v>
+      </c>
+      <c r="K43" s="66">
+        <f t="shared" si="17"/>
+        <v>0.1209622646131165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="68"/>
+      <c r="B44" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>0.48927081314426857</v>
+      </c>
+      <c r="D44">
+        <v>0.18211880571978886</v>
+      </c>
+      <c r="E44">
+        <v>0.16101183025136639</v>
+      </c>
+      <c r="F44">
+        <v>3.1250729016316217E-2</v>
+      </c>
+      <c r="G44">
+        <v>1.33075594135036</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="16"/>
+        <v>2.1944081194820999</v>
+      </c>
+      <c r="K44" s="66">
+        <f t="shared" si="17"/>
+        <v>2.3478386704859161E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
+      <c r="B45" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <v>20.844454874237712</v>
+      </c>
+      <c r="D45">
+        <v>7.7576432685842631</v>
+      </c>
+      <c r="E45">
+        <v>6.8562306423599013</v>
+      </c>
+      <c r="F45">
+        <v>1.33075594135036</v>
+      </c>
+      <c r="G45">
+        <v>56.67594534846598</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="16"/>
+        <v>93.465030074998225</v>
+      </c>
+      <c r="K45" s="66">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="57"/>
+      <c r="C46" s="67">
+        <f>SUM(C41:C45)</f>
+        <v>34.380495606023054</v>
+      </c>
+      <c r="D46" s="67">
+        <f t="shared" ref="D46:G46" si="18">SUM(D41:D45)</f>
+        <v>12.79434189183916</v>
+      </c>
+      <c r="E46" s="67">
+        <f t="shared" si="18"/>
+        <v>11.305741700004827</v>
+      </c>
+      <c r="F46" s="67">
+        <f t="shared" si="18"/>
+        <v>2.1944081194820999</v>
+      </c>
+      <c r="G46" s="67">
+        <f t="shared" si="18"/>
+        <v>93.465030074998225</v>
+      </c>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67">
+        <f>SUM(I41:I45)</f>
+        <v>154.14001739234737</v>
+      </c>
+      <c r="K46" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
